--- a/src/main/resources/jobkorea_requirements.xlsx
+++ b/src/main/resources/jobkorea_requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjh73\PycharmProjects\PythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjh73\IdeaProjects\project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B47653-9D15-40CE-8F19-5DB519889C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF78AB-E5CB-498A-9B83-3CBB00F15A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2375,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/jobkorea_requirements.xlsx
+++ b/src/main/resources/jobkorea_requirements.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjh73\IdeaProjects\project\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF78AB-E5CB-498A-9B83-3CBB00F15A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="638">
   <si>
     <t>공고제목</t>
   </si>
@@ -1209,9 +1208,6 @@
     <t>[여의도 IFC mall] 애플스토어 보안요원 채용</t>
   </si>
   <si>
-    <t>대기업 보안대원모집 삼교대(주,야,비) 가능 및 서비스 마인드 강하신분 모</t>
-  </si>
-  <si>
     <t>여의도 파크원 타워 1 보안팀 채용  (3교대근무)</t>
   </si>
   <si>
@@ -1270,9 +1266,6 @@
   </si>
   <si>
     <t>[외국계기업/양천구] Screening Officer 보안요원 (주주야야)</t>
-  </si>
-  <si>
-    <t>[] 선릉역 오피스타워 보안대원 채용</t>
   </si>
   <si>
     <t>[월 2주 야간근무]컴퓨터 모니터링 및 CS 채용</t>
@@ -1990,13 +1983,25 @@
   </si>
   <si>
     <t>경비지도사, 위험물관리기능사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기업 보안대원모집 삼교대(주,야,비) 가능 및 서비스 마인드 강하신분 모집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두잉씨앤에스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[두잉씨앤에스] 선릉역 오피스타워 보안대원 채용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2372,11 +2377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -2426,7 +2431,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>635</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2438,7 +2443,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -2446,7 +2451,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2466,27 +2471,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2498,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -2506,27 +2511,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2538,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2546,7 +2551,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2558,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -2566,7 +2571,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -2578,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -2586,7 +2591,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -2598,15 +2603,15 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2618,7 +2623,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -2626,7 +2631,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2638,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
@@ -2646,19 +2651,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
@@ -2666,7 +2671,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -2678,7 +2683,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
@@ -2686,7 +2691,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -2698,7 +2703,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -2706,7 +2711,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -2718,7 +2723,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -2726,7 +2731,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
@@ -2746,7 +2751,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
@@ -2758,7 +2763,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -2766,7 +2771,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -2778,24 +2783,24 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -2806,7 +2811,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -2826,7 +2831,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -2846,10 +2851,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>637</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>636</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2866,16 +2871,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -2886,7 +2891,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -2906,7 +2911,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2918,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F27" t="s">
         <v>58</v>
@@ -2926,7 +2931,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -2946,7 +2951,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
@@ -2958,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
@@ -2966,7 +2971,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -2986,7 +2991,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -3006,16 +3011,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -3026,7 +3031,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -3038,7 +3043,7 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F33" t="s">
         <v>70</v>
@@ -3046,7 +3051,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
@@ -3086,7 +3091,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
@@ -3098,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F36" t="s">
         <v>76</v>
@@ -3106,7 +3111,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -3118,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F37" t="s">
         <v>77</v>
@@ -3126,7 +3131,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B38" t="s">
         <v>78</v>
@@ -3146,7 +3151,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -3158,7 +3163,7 @@
         <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F39" t="s">
         <v>84</v>
@@ -3166,7 +3171,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
@@ -3186,7 +3191,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
@@ -3198,7 +3203,7 @@
         <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F41" t="s">
         <v>89</v>
@@ -3206,7 +3211,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
@@ -3226,7 +3231,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
@@ -3246,7 +3251,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -3258,7 +3263,7 @@
         <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F44" t="s">
         <v>95</v>
@@ -3266,7 +3271,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
         <v>96</v>
@@ -3278,7 +3283,7 @@
         <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F45" t="s">
         <v>97</v>
@@ -3286,7 +3291,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -3298,7 +3303,7 @@
         <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F46" t="s">
         <v>99</v>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
@@ -3318,7 +3323,7 @@
         <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F47" t="s">
         <v>101</v>
@@ -3326,7 +3331,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
@@ -3338,7 +3343,7 @@
         <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F48" t="s">
         <v>103</v>
@@ -3346,19 +3351,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D49" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F49" t="s">
         <v>104</v>
@@ -3366,7 +3371,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
@@ -3378,7 +3383,7 @@
         <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F50" t="s">
         <v>106</v>
@@ -3386,7 +3391,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
@@ -3406,7 +3411,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -3418,7 +3423,7 @@
         <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F52" t="s">
         <v>110</v>
@@ -3426,7 +3431,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
@@ -3446,7 +3451,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s">
         <v>113</v>
@@ -3466,7 +3471,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
@@ -3486,7 +3491,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
@@ -3506,7 +3511,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B57" t="s">
         <v>120</v>
@@ -3526,7 +3531,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s">
         <v>122</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
         <v>125</v>
@@ -3566,7 +3571,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B60" t="s">
         <v>128</v>
@@ -3586,7 +3591,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B61" t="s">
         <v>130</v>
@@ -3606,7 +3611,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
         <v>133</v>
@@ -3618,7 +3623,7 @@
         <v>79</v>
       </c>
       <c r="E62" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F62" t="s">
         <v>134</v>
@@ -3626,7 +3631,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
@@ -3638,7 +3643,7 @@
         <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F63" t="s">
         <v>136</v>
@@ -3646,7 +3651,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s">
         <v>137</v>
@@ -3658,7 +3663,7 @@
         <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F64" t="s">
         <v>138</v>
@@ -3666,7 +3671,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
@@ -3686,7 +3691,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B66" t="s">
         <v>143</v>
@@ -3706,7 +3711,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
@@ -3726,19 +3731,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D68" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E68" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F68" t="s">
         <v>148</v>
@@ -3746,7 +3751,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s">
         <v>25</v>
@@ -3758,7 +3763,7 @@
         <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F69" t="s">
         <v>149</v>
@@ -3766,7 +3771,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
         <v>150</v>
@@ -3778,7 +3783,7 @@
         <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F70" t="s">
         <v>151</v>
@@ -3786,7 +3791,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
         <v>150</v>
@@ -3798,7 +3803,7 @@
         <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F71" t="s">
         <v>152</v>
@@ -3806,7 +3811,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
         <v>153</v>
@@ -3818,7 +3823,7 @@
         <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F72" t="s">
         <v>154</v>
@@ -3826,19 +3831,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E73" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F73" t="s">
         <v>156</v>
@@ -3846,19 +3851,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F74" t="s">
         <v>157</v>
@@ -3866,7 +3871,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s">
         <v>158</v>
@@ -3878,7 +3883,7 @@
         <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F75" t="s">
         <v>159</v>
@@ -3886,7 +3891,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
         <v>160</v>
@@ -3906,7 +3911,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s">
         <v>162</v>
@@ -3918,7 +3923,7 @@
         <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F77" t="s">
         <v>163</v>
@@ -3926,7 +3931,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s">
         <v>164</v>
@@ -3946,7 +3951,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s">
         <v>145</v>
@@ -3966,7 +3971,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s">
         <v>168</v>
@@ -3978,7 +3983,7 @@
         <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F80" t="s">
         <v>169</v>
@@ -3986,19 +3991,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
         <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D81" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E81" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F81" t="s">
         <v>171</v>
@@ -4006,7 +4011,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s">
         <v>172</v>
@@ -4026,7 +4031,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B83" t="s">
         <v>174</v>
@@ -4046,7 +4051,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s">
         <v>176</v>
@@ -4066,7 +4071,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s">
         <v>179</v>
@@ -4086,7 +4091,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
@@ -4098,7 +4103,7 @@
         <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F86" t="s">
         <v>181</v>
@@ -4106,7 +4111,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -4126,7 +4131,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s">
         <v>125</v>
@@ -4146,7 +4151,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s">
         <v>184</v>
@@ -4158,7 +4163,7 @@
         <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F89" t="s">
         <v>185</v>
@@ -4166,7 +4171,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B90" t="s">
         <v>186</v>
@@ -4186,7 +4191,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4206,16 +4211,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B92" t="s">
         <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D92" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -4226,7 +4231,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -4238,7 +4243,7 @@
         <v>135</v>
       </c>
       <c r="E93" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F93" t="s">
         <v>191</v>
@@ -4246,7 +4251,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B94" t="s">
         <v>192</v>
@@ -4258,7 +4263,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F94" t="s">
         <v>193</v>
@@ -4266,16 +4271,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B95" t="s">
         <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D95" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E95" t="s">
         <v>195</v>
@@ -4286,7 +4291,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B96" t="s">
         <v>197</v>
@@ -4298,7 +4303,7 @@
         <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F96" t="s">
         <v>198</v>
@@ -4306,7 +4311,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B97" t="s">
         <v>199</v>
@@ -4318,7 +4323,7 @@
         <v>135</v>
       </c>
       <c r="E97" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F97" t="s">
         <v>200</v>
@@ -4326,16 +4331,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s">
         <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D98" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
@@ -4346,7 +4351,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
@@ -4358,7 +4363,7 @@
         <v>135</v>
       </c>
       <c r="E99" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F99" t="s">
         <v>202</v>
@@ -4366,7 +4371,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B100" t="s">
         <v>203</v>
@@ -4378,7 +4383,7 @@
         <v>135</v>
       </c>
       <c r="E100" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F100" t="s">
         <v>204</v>
@@ -4386,7 +4391,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B101" t="s">
         <v>205</v>
@@ -4406,7 +4411,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B102" t="s">
         <v>207</v>
@@ -4418,7 +4423,7 @@
         <v>135</v>
       </c>
       <c r="E102" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F102" t="s">
         <v>208</v>
@@ -4426,7 +4431,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B103" t="s">
         <v>209</v>
@@ -4438,7 +4443,7 @@
         <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F103" t="s">
         <v>210</v>
@@ -4446,7 +4451,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B104" t="s">
         <v>211</v>
@@ -4466,7 +4471,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -4486,7 +4491,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -4506,7 +4511,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B107" t="s">
         <v>216</v>
@@ -4526,16 +4531,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B108" t="s">
         <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D108" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -4546,36 +4551,36 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B109" t="s">
         <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D109" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s">
         <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D110" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -4586,7 +4591,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B111" t="s">
         <v>221</v>
@@ -4598,7 +4603,7 @@
         <v>223</v>
       </c>
       <c r="E111" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F111" t="s">
         <v>224</v>
@@ -4606,7 +4611,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B112" t="s">
         <v>225</v>
@@ -4626,7 +4631,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B113" t="s">
         <v>88</v>
@@ -4646,7 +4651,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B114" t="s">
         <v>230</v>
@@ -4658,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="E114" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F114" t="s">
         <v>231</v>
@@ -4666,7 +4671,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B115" t="s">
         <v>232</v>
@@ -4686,7 +4691,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B116" t="s">
         <v>234</v>
@@ -4698,7 +4703,7 @@
         <v>235</v>
       </c>
       <c r="E116" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F116" t="s">
         <v>236</v>
@@ -4706,7 +4711,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B117" t="s">
         <v>237</v>
@@ -4726,7 +4731,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B118" t="s">
         <v>239</v>
@@ -4738,7 +4743,7 @@
         <v>83</v>
       </c>
       <c r="E118" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F118" t="s">
         <v>240</v>
@@ -4746,19 +4751,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B119" t="s">
         <v>241</v>
       </c>
       <c r="C119" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D119" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F119" t="s">
         <v>242</v>
@@ -4766,7 +4771,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B120" t="s">
         <v>211</v>
@@ -4778,7 +4783,7 @@
         <v>83</v>
       </c>
       <c r="E120" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F120" t="s">
         <v>243</v>
@@ -4786,7 +4791,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B121" t="s">
         <v>244</v>
@@ -4798,7 +4803,7 @@
         <v>83</v>
       </c>
       <c r="E121" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F121" t="s">
         <v>245</v>
@@ -4806,7 +4811,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B122" t="s">
         <v>232</v>
@@ -4818,7 +4823,7 @@
         <v>83</v>
       </c>
       <c r="E122" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F122" t="s">
         <v>246</v>
@@ -4826,7 +4831,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B123" t="s">
         <v>61</v>
@@ -4846,7 +4851,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B124" t="s">
         <v>250</v>
@@ -4866,7 +4871,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B125" t="s">
         <v>253</v>
@@ -4886,7 +4891,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B126" t="s">
         <v>256</v>
@@ -4898,7 +4903,7 @@
         <v>257</v>
       </c>
       <c r="E126" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F126" t="s">
         <v>258</v>
@@ -4906,7 +4911,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B127" t="s">
         <v>241</v>
@@ -4918,7 +4923,7 @@
         <v>257</v>
       </c>
       <c r="E127" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F127" t="s">
         <v>259</v>
@@ -4926,7 +4931,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B128" t="s">
         <v>260</v>
@@ -4946,7 +4951,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B129" t="s">
         <v>263</v>
@@ -4958,7 +4963,7 @@
         <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F129" t="s">
         <v>264</v>
@@ -4966,7 +4971,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B130" t="s">
         <v>265</v>
@@ -4978,7 +4983,7 @@
         <v>257</v>
       </c>
       <c r="E130" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F130" t="s">
         <v>266</v>
@@ -4986,7 +4991,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B131" t="s">
         <v>267</v>
@@ -5006,7 +5011,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B132" t="s">
         <v>272</v>
@@ -5026,7 +5031,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B133" t="s">
         <v>274</v>
@@ -5046,7 +5051,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B134" t="s">
         <v>277</v>
@@ -5066,7 +5071,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B135" t="s">
         <v>279</v>
@@ -5086,7 +5091,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B136" t="s">
         <v>279</v>
@@ -5106,7 +5111,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B137" t="s">
         <v>284</v>
@@ -5118,7 +5123,7 @@
         <v>257</v>
       </c>
       <c r="E137" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F137" t="s">
         <v>285</v>
@@ -5126,7 +5131,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B138" t="s">
         <v>286</v>
@@ -5138,7 +5143,7 @@
         <v>269</v>
       </c>
       <c r="E138" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F138" t="s">
         <v>287</v>
@@ -5146,19 +5151,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B139" t="s">
         <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D139" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F139" t="s">
         <v>289</v>
@@ -5166,7 +5171,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B140" t="s">
         <v>290</v>
@@ -5186,7 +5191,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B141" t="s">
         <v>292</v>
@@ -5198,7 +5203,7 @@
         <v>269</v>
       </c>
       <c r="E141" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F141" t="s">
         <v>293</v>
@@ -5206,7 +5211,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B142" t="s">
         <v>294</v>
@@ -5218,7 +5223,7 @@
         <v>269</v>
       </c>
       <c r="E142" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F142" t="s">
         <v>295</v>
@@ -5226,7 +5231,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B143" t="s">
         <v>61</v>
@@ -5238,7 +5243,7 @@
         <v>269</v>
       </c>
       <c r="E143" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F143" t="s">
         <v>296</v>
@@ -5246,7 +5251,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B144" t="s">
         <v>297</v>
@@ -5266,7 +5271,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B145" t="s">
         <v>299</v>
@@ -5286,7 +5291,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B146" t="s">
         <v>302</v>
@@ -5306,7 +5311,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B147" t="s">
         <v>305</v>
@@ -5318,7 +5323,7 @@
         <v>269</v>
       </c>
       <c r="E147" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F147" t="s">
         <v>306</v>
@@ -5326,7 +5331,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B148" t="s">
         <v>307</v>
@@ -5346,7 +5351,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B149" t="s">
         <v>88</v>
@@ -5366,7 +5371,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B150" t="s">
         <v>314</v>
@@ -5386,7 +5391,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B151" t="s">
         <v>25</v>
@@ -5406,7 +5411,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B152" t="s">
         <v>318</v>
@@ -5426,7 +5431,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B153" t="s">
         <v>320</v>
@@ -5446,7 +5451,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B154" t="s">
         <v>323</v>
@@ -5458,7 +5463,7 @@
         <v>311</v>
       </c>
       <c r="E154" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F154" t="s">
         <v>324</v>
@@ -5466,19 +5471,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D155" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E155" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F155" t="s">
         <v>325</v>
@@ -5486,7 +5491,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -5506,7 +5511,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B157" t="s">
         <v>327</v>
@@ -5526,7 +5531,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B158" t="s">
         <v>323</v>
@@ -5538,7 +5543,7 @@
         <v>311</v>
       </c>
       <c r="E158" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F158" t="s">
         <v>329</v>
@@ -5546,7 +5551,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B159" t="s">
         <v>48</v>
@@ -5558,7 +5563,7 @@
         <v>311</v>
       </c>
       <c r="E159" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F159" t="s">
         <v>330</v>
@@ -5566,7 +5571,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B160" t="s">
         <v>331</v>
@@ -5586,7 +5591,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B161" t="s">
         <v>333</v>
@@ -5598,15 +5603,15 @@
         <v>311</v>
       </c>
       <c r="E161" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B162" t="s">
         <v>25</v>
@@ -5626,7 +5631,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B163" t="s">
         <v>241</v>
@@ -5638,7 +5643,7 @@
         <v>338</v>
       </c>
       <c r="E163" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F163" t="s">
         <v>339</v>
@@ -5646,7 +5651,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B164" t="s">
         <v>50</v>
@@ -5666,7 +5671,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B165" t="s">
         <v>48</v>
@@ -5678,7 +5683,7 @@
         <v>338</v>
       </c>
       <c r="E165" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F165" t="s">
         <v>341</v>
@@ -5686,7 +5691,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B166" t="s">
         <v>342</v>
@@ -5698,7 +5703,7 @@
         <v>338</v>
       </c>
       <c r="E166" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F166" t="s">
         <v>343</v>
@@ -5706,7 +5711,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B167" t="s">
         <v>344</v>
@@ -5726,7 +5731,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B168" t="s">
         <v>348</v>
@@ -5738,7 +5743,7 @@
         <v>349</v>
       </c>
       <c r="E168" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F168" t="s">
         <v>350</v>
@@ -5746,7 +5751,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B169" t="s">
         <v>232</v>
@@ -5758,7 +5763,7 @@
         <v>349</v>
       </c>
       <c r="E169" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F169" t="s">
         <v>351</v>
@@ -5766,7 +5771,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B170" t="s">
         <v>352</v>
@@ -5778,7 +5783,7 @@
         <v>349</v>
       </c>
       <c r="E170" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F170" t="s">
         <v>353</v>
@@ -5786,7 +5791,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B171" t="s">
         <v>354</v>
@@ -5806,7 +5811,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B172" t="s">
         <v>356</v>
@@ -5818,7 +5823,7 @@
         <v>349</v>
       </c>
       <c r="E172" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F172" t="s">
         <v>357</v>
@@ -5826,7 +5831,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B173" t="s">
         <v>241</v>
@@ -5838,7 +5843,7 @@
         <v>349</v>
       </c>
       <c r="E173" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F173" t="s">
         <v>358</v>
@@ -5846,19 +5851,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D174" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E174" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F174" t="s">
         <v>359</v>
@@ -5866,19 +5871,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B175" t="s">
         <v>360</v>
       </c>
       <c r="C175" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D175" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E175" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F175" t="s">
         <v>361</v>
@@ -5886,19 +5891,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B176" t="s">
         <v>362</v>
       </c>
       <c r="C176" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D176" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E176" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F176" t="s">
         <v>363</v>
@@ -5906,7 +5911,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B177" t="s">
         <v>172</v>
@@ -5918,7 +5923,7 @@
         <v>365</v>
       </c>
       <c r="E177" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F177" t="s">
         <v>366</v>
@@ -5926,7 +5931,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B178" t="s">
         <v>73</v>
@@ -5938,7 +5943,7 @@
         <v>337</v>
       </c>
       <c r="E178" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F178" t="s">
         <v>367</v>
@@ -5946,16 +5951,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B179" t="s">
         <v>368</v>
       </c>
       <c r="C179" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D179" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E179" t="s">
         <v>7</v>
@@ -5966,19 +5971,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D180" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E180" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F180" t="s">
         <v>371</v>
@@ -5986,19 +5991,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B181" t="s">
         <v>370</v>
       </c>
       <c r="C181" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D181" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E181" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F181" t="s">
         <v>372</v>
@@ -6006,19 +6011,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
       </c>
       <c r="C182" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D182" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E182" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F182" t="s">
         <v>373</v>
@@ -6026,16 +6031,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B183" t="s">
         <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D183" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E183" t="s">
         <v>375</v>
@@ -6046,7 +6051,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B184" t="s">
         <v>377</v>
@@ -6058,7 +6063,7 @@
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F184" t="s">
         <v>379</v>
@@ -6066,19 +6071,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B185" t="s">
         <v>380</v>
       </c>
       <c r="C185" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D185" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E185" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F185" t="s">
         <v>381</v>
@@ -6086,7 +6091,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B186" t="s">
         <v>73</v>
@@ -6106,7 +6111,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -6126,7 +6131,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
@@ -6146,19 +6151,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B189" t="s">
         <v>387</v>
       </c>
       <c r="C189" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D189" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E189" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F189" t="s">
         <v>388</v>
@@ -6166,7 +6171,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B190" t="s">
         <v>390</v>
@@ -6178,7 +6183,7 @@
         <v>346</v>
       </c>
       <c r="E190" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F190" t="s">
         <v>391</v>
@@ -6186,16 +6191,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B191" t="s">
         <v>392</v>
       </c>
       <c r="C191" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D191" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -6207,14 +6212,14 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{15223D00-0988-46C2-B0D4-E341BE84E215}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{BCC6B811-C50B-4DCA-8886-68C0DC4AAE5A}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{5B641A3B-BADD-4A5F-8E25-DF57A74CB25B}"/>
-    <hyperlink ref="F20" r:id="rId4" xr:uid="{EC6E9504-68E4-408B-AB50-7F88543995D3}"/>
-    <hyperlink ref="F109" r:id="rId5" xr:uid="{5F8E8F11-24BF-40B9-B3D8-A9EEA5FA6EE5}"/>
-    <hyperlink ref="F161" r:id="rId6" xr:uid="{5703DA57-ACB9-4A83-8620-638EDD516694}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F109" r:id="rId5"/>
+    <hyperlink ref="F161" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>